--- a/natmiOut/OldD2/LR-pairs_lrc2p/Matn1-Itga1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Matn1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.669758076798321</v>
+        <v>0.306399</v>
       </c>
       <c r="H2">
-        <v>0.669758076798321</v>
+        <v>0.919197</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3017954127735523</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3017954127735522</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.5535128604418</v>
+        <v>55.9484575</v>
       </c>
       <c r="N2">
-        <v>54.5535128604418</v>
+        <v>111.896915</v>
       </c>
       <c r="O2">
-        <v>0.434431607541591</v>
+        <v>0.4236195045309116</v>
       </c>
       <c r="P2">
-        <v>0.434431607541591</v>
+        <v>0.3537406883573876</v>
       </c>
       <c r="Q2">
-        <v>36.53765585600197</v>
+        <v>17.1425514295425</v>
       </c>
       <c r="R2">
-        <v>36.53765585600197</v>
+        <v>102.855308577255</v>
       </c>
       <c r="S2">
-        <v>0.434431607541591</v>
+        <v>0.1278464232288342</v>
       </c>
       <c r="T2">
-        <v>0.434431607541591</v>
+        <v>0.1067573170576183</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.669758076798321</v>
+        <v>0.306399</v>
       </c>
       <c r="H3">
-        <v>0.669758076798321</v>
+        <v>0.919197</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3017954127735523</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3017954127735522</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.03834459622781</v>
+        <v>2.360452</v>
       </c>
       <c r="N3">
-        <v>2.03834459622781</v>
+        <v>7.081356</v>
       </c>
       <c r="O3">
-        <v>0.01623215945650088</v>
+        <v>0.01787240527067255</v>
       </c>
       <c r="P3">
-        <v>0.01623215945650088</v>
+        <v>0.02238635217015337</v>
       </c>
       <c r="Q3">
-        <v>1.365197756621788</v>
+        <v>0.7232401323480001</v>
       </c>
       <c r="R3">
-        <v>1.365197756621788</v>
+        <v>6.509161191132</v>
       </c>
       <c r="S3">
-        <v>0.01623215945650088</v>
+        <v>0.005393809925918834</v>
       </c>
       <c r="T3">
-        <v>0.01623215945650088</v>
+        <v>0.006756098393685541</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.669758076798321</v>
+        <v>0.306399</v>
       </c>
       <c r="H4">
-        <v>0.669758076798321</v>
+        <v>0.919197</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3017954127735523</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3017954127735522</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.752405758797317</v>
+        <v>2.631462</v>
       </c>
       <c r="N4">
-        <v>0.752405758797317</v>
+        <v>7.894386</v>
       </c>
       <c r="O4">
-        <v>0.005991710270868556</v>
+        <v>0.01992438537973851</v>
       </c>
       <c r="P4">
-        <v>0.005991710270868556</v>
+        <v>0.02495659096409337</v>
       </c>
       <c r="Q4">
-        <v>0.5039298339840724</v>
+        <v>0.8062773253380001</v>
       </c>
       <c r="R4">
-        <v>0.5039298339840724</v>
+        <v>7.256495928042</v>
       </c>
       <c r="S4">
-        <v>0.005991710270868556</v>
+        <v>0.006013088109937515</v>
       </c>
       <c r="T4">
-        <v>0.005991710270868556</v>
+        <v>0.007531784671429262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.669758076798321</v>
+        <v>0.306399</v>
       </c>
       <c r="H5">
-        <v>0.669758076798321</v>
+        <v>0.919197</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.3017954127735523</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3017954127735522</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.378831033156087</v>
+        <v>0.4270753333333333</v>
       </c>
       <c r="N5">
-        <v>0.378831033156087</v>
+        <v>1.281226</v>
       </c>
       <c r="O5">
-        <v>0.003016784182929844</v>
+        <v>0.003233644843632026</v>
       </c>
       <c r="P5">
-        <v>0.003016784182929844</v>
+        <v>0.004050350871437182</v>
       </c>
       <c r="Q5">
-        <v>0.2537251441981418</v>
+        <v>0.130855455058</v>
       </c>
       <c r="R5">
-        <v>0.2537251441981418</v>
+        <v>1.177699095522</v>
       </c>
       <c r="S5">
-        <v>0.003016784182929844</v>
+        <v>0.0009758991803469961</v>
       </c>
       <c r="T5">
-        <v>0.003016784182929844</v>
+        <v>0.001222377313123101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.669758076798321</v>
+        <v>0.306399</v>
       </c>
       <c r="H6">
-        <v>0.669758076798321</v>
+        <v>0.919197</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.3017954127735523</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.3017954127735522</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.5048646364917</v>
+        <v>46.760844</v>
       </c>
       <c r="N6">
-        <v>44.5048646364917</v>
+        <v>140.282532</v>
       </c>
       <c r="O6">
-        <v>0.354410172208577</v>
+        <v>0.3540545432682795</v>
       </c>
       <c r="P6">
-        <v>0.354410172208577</v>
+        <v>0.4434763856912163</v>
       </c>
       <c r="Q6">
-        <v>29.80749254710629</v>
+        <v>14.327475840756</v>
       </c>
       <c r="R6">
-        <v>29.80749254710629</v>
+        <v>128.947282566804</v>
       </c>
       <c r="S6">
-        <v>0.354410172208577</v>
+        <v>0.1068520370300019</v>
       </c>
       <c r="T6">
-        <v>0.354410172208577</v>
+        <v>0.1338391388750037</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,421 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.669758076798321</v>
+        <v>0.306399</v>
       </c>
       <c r="H7">
-        <v>0.669758076798321</v>
+        <v>0.919197</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.3017954127735523</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.3017954127735522</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.3464972856855</v>
+        <v>23.9441395</v>
       </c>
       <c r="N7">
-        <v>23.3464972856855</v>
+        <v>47.888279</v>
       </c>
       <c r="O7">
-        <v>0.1859175663395328</v>
+        <v>0.1812955167067658</v>
       </c>
       <c r="P7">
-        <v>0.1859175663395328</v>
+        <v>0.1513896319457121</v>
       </c>
       <c r="Q7">
-        <v>15.63650512203794</v>
+        <v>7.3364603986605</v>
       </c>
       <c r="R7">
-        <v>15.63650512203794</v>
+        <v>44.018762391963</v>
       </c>
       <c r="S7">
-        <v>0.1859175663395328</v>
+        <v>0.05471415529851283</v>
       </c>
       <c r="T7">
-        <v>0.1859175663395328</v>
+        <v>0.04568869646269232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.7088550000000001</v>
+      </c>
+      <c r="H8">
+        <v>2.126565</v>
+      </c>
+      <c r="I8">
+        <v>0.6982045872264478</v>
+      </c>
+      <c r="J8">
+        <v>0.6982045872264477</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>55.9484575</v>
+      </c>
+      <c r="N8">
+        <v>111.896915</v>
+      </c>
+      <c r="O8">
+        <v>0.4236195045309116</v>
+      </c>
+      <c r="P8">
+        <v>0.3537406883573876</v>
+      </c>
+      <c r="Q8">
+        <v>39.65934384116251</v>
+      </c>
+      <c r="R8">
+        <v>237.956063046975</v>
+      </c>
+      <c r="S8">
+        <v>0.2957730813020775</v>
+      </c>
+      <c r="T8">
+        <v>0.2469833712997693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.7088550000000001</v>
+      </c>
+      <c r="H9">
+        <v>2.126565</v>
+      </c>
+      <c r="I9">
+        <v>0.6982045872264478</v>
+      </c>
+      <c r="J9">
+        <v>0.6982045872264477</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.360452</v>
+      </c>
+      <c r="N9">
+        <v>7.081356</v>
+      </c>
+      <c r="O9">
+        <v>0.01787240527067255</v>
+      </c>
+      <c r="P9">
+        <v>0.02238635217015337</v>
+      </c>
+      <c r="Q9">
+        <v>1.67321820246</v>
+      </c>
+      <c r="R9">
+        <v>15.05896382214</v>
+      </c>
+      <c r="S9">
+        <v>0.01247859534475372</v>
+      </c>
+      <c r="T9">
+        <v>0.01563025377646782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7088550000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.126565</v>
+      </c>
+      <c r="I10">
+        <v>0.6982045872264478</v>
+      </c>
+      <c r="J10">
+        <v>0.6982045872264477</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.631462</v>
+      </c>
+      <c r="N10">
+        <v>7.894386</v>
+      </c>
+      <c r="O10">
+        <v>0.01992438537973851</v>
+      </c>
+      <c r="P10">
+        <v>0.02495659096409337</v>
+      </c>
+      <c r="Q10">
+        <v>1.86532499601</v>
+      </c>
+      <c r="R10">
+        <v>16.78792496409</v>
+      </c>
+      <c r="S10">
+        <v>0.013911297269801</v>
+      </c>
+      <c r="T10">
+        <v>0.01742480629266411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7088550000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.126565</v>
+      </c>
+      <c r="I11">
+        <v>0.6982045872264478</v>
+      </c>
+      <c r="J11">
+        <v>0.6982045872264477</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4270753333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.281226</v>
+      </c>
+      <c r="O11">
+        <v>0.003233644843632026</v>
+      </c>
+      <c r="P11">
+        <v>0.004050350871437182</v>
+      </c>
+      <c r="Q11">
+        <v>0.30273448541</v>
+      </c>
+      <c r="R11">
+        <v>2.72461036869</v>
+      </c>
+      <c r="S11">
+        <v>0.00225774566328503</v>
+      </c>
+      <c r="T11">
+        <v>0.002827973558314081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7088550000000001</v>
+      </c>
+      <c r="H12">
+        <v>2.126565</v>
+      </c>
+      <c r="I12">
+        <v>0.6982045872264478</v>
+      </c>
+      <c r="J12">
+        <v>0.6982045872264477</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>46.760844</v>
+      </c>
+      <c r="N12">
+        <v>140.282532</v>
+      </c>
+      <c r="O12">
+        <v>0.3540545432682795</v>
+      </c>
+      <c r="P12">
+        <v>0.4434763856912163</v>
+      </c>
+      <c r="Q12">
+        <v>33.14665807362</v>
+      </c>
+      <c r="R12">
+        <v>298.31992266258</v>
+      </c>
+      <c r="S12">
+        <v>0.2472025062382776</v>
+      </c>
+      <c r="T12">
+        <v>0.3096372468162126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7088550000000001</v>
+      </c>
+      <c r="H13">
+        <v>2.126565</v>
+      </c>
+      <c r="I13">
+        <v>0.6982045872264478</v>
+      </c>
+      <c r="J13">
+        <v>0.6982045872264477</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>23.9441395</v>
+      </c>
+      <c r="N13">
+        <v>47.888279</v>
+      </c>
+      <c r="O13">
+        <v>0.1812955167067658</v>
+      </c>
+      <c r="P13">
+        <v>0.1513896319457121</v>
+      </c>
+      <c r="Q13">
+        <v>16.9729230052725</v>
+      </c>
+      <c r="R13">
+        <v>101.837538031635</v>
+      </c>
+      <c r="S13">
+        <v>0.126581361408253</v>
+      </c>
+      <c r="T13">
+        <v>0.1057009354830197</v>
       </c>
     </row>
   </sheetData>
